--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>491976.3550650674</v>
+        <v>436162.7483735883</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12282552.24780178</v>
+        <v>12382612.22781478</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8397128.710056558</v>
+        <v>7773756.274429784</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8816327.964239953</v>
+        <v>9089439.735357987</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6.396723986041487</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.3743074279355</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>125.4032899825255</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>142.3743074279355</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>142.3743074279355</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.3743074279355</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>142.3743074279355</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>125.4032899825255</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V3" t="n">
-        <v>142.3743074279355</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3743074279355</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>128.9169849340377</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8606124764234</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>142.3743074279355</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="H5" t="n">
-        <v>153.8072380324132</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>56.56995359489672</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.52558716632</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="X5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>43.51848705837075</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.40229248514497</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="X6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>187.52558716632</v>
+        <v>211.222840723037</v>
       </c>
       <c r="U7" t="n">
-        <v>187.52558716632</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="V7" t="n">
-        <v>165.1725371760945</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>79.51149230610424</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.396723986041431</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>85.84505122062366</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>182.2122578101742</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>187.5255871663199</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>187.5255871663199</v>
+        <v>189.1966334026333</v>
       </c>
       <c r="X10" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.67788952565739</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>65.36068807035309</v>
       </c>
       <c r="U11" t="n">
         <v>251.045250128462</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.781160222249223</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.781160222249223</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>59.96790981976573</v>
       </c>
       <c r="C14" t="n">
-        <v>23.41994504831868</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
         <v>65.70991267247049</v>
@@ -1660,19 +1660,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>258.0267575429484</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.781160222249216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>79.91534106849849</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>150.0651865787126</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923705015</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>38.14210214632579</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>94.29644372182844</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>219.2998250672963</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>9.116914270948911</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705012</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.781160222249673</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>173.5898340944633</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>145.5346636008961</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>173.1814393154094</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>138.4818930390892</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>180.6416667338882</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>32.97988876732234</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952942</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>193.7228370923124</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>303.0256179619638</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>262.9129962942489</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.09581973348946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>43.17365427545198</v>
       </c>
       <c r="T32" t="n">
-        <v>134.0513867710685</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492396</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>186.2120483577851</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>378.1751775729948</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>219.1834685212297</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>53.82704427691639</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>77.31354443380459</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>235.9375844494528</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>159.2282838500202</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>232.4753817320662</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>51.73974497984775</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>146.0512617929712</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>84.6947366044287</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>57.92556443677338</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>267.7473854578247</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>54.41694663634699</v>
       </c>
       <c r="D46" t="n">
-        <v>98.76492394485743</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>155.2023763396242</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="C2" t="n">
-        <v>155.2023763396242</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="D2" t="n">
-        <v>155.2023763396242</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>155.2023763396242</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>155.2023763396242</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>11.38994459423484</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>41.20368671839181</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>115.0920319927625</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>256.0425963464187</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>376.38363264524</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>517.3341969988962</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>568.4363852466585</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>569.497229711742</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>569.497229711742</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>442.8272398304031</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T2" t="n">
-        <v>299.0148080850137</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="U2" t="n">
-        <v>299.0148080850137</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="V2" t="n">
-        <v>299.0148080850137</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="W2" t="n">
-        <v>299.0148080850137</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="X2" t="n">
-        <v>155.2023763396242</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="Y2" t="n">
-        <v>155.2023763396242</v>
+        <v>400.3029543659131</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>43.16970089029058</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>132.2240462510086</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5031350371262</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>396.4536993907824</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>503.176133647777</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>569.497229711742</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>569.497229711742</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>569.497229711742</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>425.6847979663526</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>425.6847979663526</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U3" t="n">
-        <v>299.0148080850137</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V3" t="n">
-        <v>155.2023763396242</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="W3" t="n">
-        <v>155.2023763396242</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X3" t="n">
-        <v>155.2023763396242</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.2023763396242</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.4215530406724</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>285.4215530406724</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>285.4215530406724</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>285.4215530406724</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>285.4215530406724</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>285.4215530406724</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>141.609121295283</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>11.38994459423484</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>90.826528004696</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>146.6455366507735</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>287.5961010044297</v>
+        <v>465.2530182692152</v>
       </c>
       <c r="N4" t="n">
-        <v>428.5466653580858</v>
+        <v>650.903349563872</v>
       </c>
       <c r="O4" t="n">
-        <v>569.497229711742</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P4" t="n">
-        <v>569.497229711742</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>569.497229711742</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R4" t="n">
-        <v>569.497229711742</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S4" t="n">
-        <v>569.497229711742</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T4" t="n">
-        <v>569.497229711742</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="U4" t="n">
-        <v>569.497229711742</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="V4" t="n">
-        <v>569.497229711742</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>429.2339847860618</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>285.4215530406724</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.4215530406724</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.3628934706927</v>
+        <v>560.7865044148614</v>
       </c>
       <c r="C5" t="n">
-        <v>170.3628934706927</v>
+        <v>560.7865044148614</v>
       </c>
       <c r="D5" t="n">
-        <v>170.3628934706927</v>
+        <v>560.7865044148614</v>
       </c>
       <c r="E5" t="n">
-        <v>170.3628934706927</v>
+        <v>560.7865044148614</v>
       </c>
       <c r="F5" t="n">
-        <v>170.3628934706927</v>
+        <v>318.5562537668771</v>
       </c>
       <c r="G5" t="n">
-        <v>170.3628934706927</v>
+        <v>76.3260031188928</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>76.3260031188928</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678495</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058944</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>262.310696260548</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644755</v>
+        <v>449.0101090859555</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>643.3443219779374</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985583</v>
+        <v>813.5133472948967</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020266</v>
+        <v>924.2476725444228</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="R5" t="n">
-        <v>738.6222485201471</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="S5" t="n">
-        <v>738.6222485201471</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="T5" t="n">
-        <v>738.6222485201471</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="U5" t="n">
-        <v>738.6222485201471</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="V5" t="n">
-        <v>549.2024635036623</v>
+        <v>803.0167550628457</v>
       </c>
       <c r="W5" t="n">
-        <v>359.7826784871775</v>
+        <v>560.7865044148614</v>
       </c>
       <c r="X5" t="n">
-        <v>170.3628934706927</v>
+        <v>560.7865044148614</v>
       </c>
       <c r="Y5" t="n">
-        <v>170.3628934706927</v>
+        <v>560.7865044148614</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.0020469733056</v>
+        <v>460.7375340884774</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0020469733056</v>
+        <v>460.7375340884774</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0020469733056</v>
+        <v>460.7375340884774</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>301.5000790830219</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>257.5420113472939</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>120.1006137065158</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>85.3014154816622</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024213</v>
+        <v>152.9092351450191</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>290.1388331607128</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140244</v>
+        <v>469.6361695153174</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>668.2929111679819</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476349</v>
+        <v>827.8052238367422</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>936.4948513640409</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="R6" t="n">
-        <v>734.5444774681637</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="S6" t="n">
-        <v>583.26140202276</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="T6" t="n">
-        <v>583.26140202276</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="U6" t="n">
-        <v>393.8416170062752</v>
+        <v>938.1198929682045</v>
       </c>
       <c r="V6" t="n">
-        <v>393.8416170062752</v>
+        <v>702.9677847364617</v>
       </c>
       <c r="W6" t="n">
-        <v>393.8416170062752</v>
+        <v>460.7375340884774</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4218319897904</v>
+        <v>460.7375340884774</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.0020469733056</v>
+        <v>460.7375340884774</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="K7" t="n">
-        <v>43.17590452428104</v>
+        <v>63.76336012264304</v>
       </c>
       <c r="L7" t="n">
-        <v>216.0634826394161</v>
+        <v>248.5963550234613</v>
       </c>
       <c r="M7" t="n">
-        <v>401.7138139340728</v>
+        <v>453.8659557426991</v>
       </c>
       <c r="N7" t="n">
-        <v>587.3641452287296</v>
+        <v>659.6893205788033</v>
       </c>
       <c r="O7" t="n">
-        <v>750.1023486652798</v>
+        <v>833.7842159674021</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652798</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="Q7" t="n">
-        <v>750.1023486652798</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="R7" t="n">
-        <v>750.1023486652798</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="S7" t="n">
-        <v>560.6825636487949</v>
+        <v>959.2317925660177</v>
       </c>
       <c r="T7" t="n">
-        <v>371.2627786323101</v>
+        <v>745.8753877952732</v>
       </c>
       <c r="U7" t="n">
-        <v>181.8429936158253</v>
+        <v>503.6451371472889</v>
       </c>
       <c r="V7" t="n">
-        <v>15.0020469733056</v>
+        <v>261.4148864993047</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132035</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00204697330559</v>
+        <v>367.789405660333</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00204697330559</v>
+        <v>367.789405660333</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330559</v>
+        <v>367.789405660333</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330559</v>
+        <v>367.789405660333</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330559</v>
+        <v>101.4117490931551</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>743.6410113056417</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>583.2614020227597</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T8" t="n">
-        <v>583.2614020227597</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U8" t="n">
-        <v>583.2614020227597</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V8" t="n">
-        <v>583.2614020227597</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W8" t="n">
-        <v>393.841617006275</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X8" t="n">
-        <v>204.4218319897903</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.00204697330559</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>484.9240438887989</v>
+        <v>624.3310045827856</v>
       </c>
       <c r="C9" t="n">
-        <v>310.4710146076719</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="D9" t="n">
-        <v>161.5366049464206</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="E9" t="n">
-        <v>161.5366049464206</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843275</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S9" t="n">
-        <v>571.6362168389238</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T9" t="n">
-        <v>571.6362168389238</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U9" t="n">
-        <v>571.6362168389238</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V9" t="n">
-        <v>571.6362168389238</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="W9" t="n">
-        <v>484.9240438887989</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="X9" t="n">
-        <v>484.9240438887989</v>
+        <v>624.3310045827856</v>
       </c>
       <c r="Y9" t="n">
-        <v>484.9240438887989</v>
+        <v>624.3310045827856</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L10" t="n">
-        <v>187.8896250884407</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M10" t="n">
-        <v>373.5399563830973</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N10" t="n">
-        <v>559.190287677754</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O10" t="n">
-        <v>721.9284911143042</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652795</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>750.1023486652795</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>750.1023486652795</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S10" t="n">
-        <v>750.1023486652795</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T10" t="n">
-        <v>750.1023486652795</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U10" t="n">
-        <v>560.6825636487947</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="V10" t="n">
-        <v>371.26277863231</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="W10" t="n">
-        <v>181.8429936158252</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>36.32155393434483</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>918.0161179218646</v>
+        <v>795.3007377729978</v>
       </c>
       <c r="C11" t="n">
-        <v>918.0161179218646</v>
+        <v>795.3007377729978</v>
       </c>
       <c r="D11" t="n">
-        <v>918.0161179218646</v>
+        <v>437.0350391662473</v>
       </c>
       <c r="E11" t="n">
-        <v>918.0161179218646</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F11" t="n">
-        <v>507.0302131322571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G11" t="n">
-        <v>91.32546285654593</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H11" t="n">
         <v>51.2467865680031</v>
@@ -5044,7 +5044,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K11" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L11" t="n">
         <v>795.7553530872913</v>
@@ -5068,25 +5068,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T11" t="n">
-        <v>2228.89447953245</v>
+        <v>2496.318431359394</v>
       </c>
       <c r="U11" t="n">
-        <v>1975.313418796629</v>
+        <v>2242.737370623574</v>
       </c>
       <c r="V11" t="n">
-        <v>1644.250531453059</v>
+        <v>1911.674483280003</v>
       </c>
       <c r="W11" t="n">
-        <v>1291.481876182944</v>
+        <v>1558.905828009889</v>
       </c>
       <c r="X11" t="n">
-        <v>918.0161179218646</v>
+        <v>1185.440069748809</v>
       </c>
       <c r="Y11" t="n">
-        <v>918.0161179218646</v>
+        <v>795.3007377729978</v>
       </c>
     </row>
     <row r="12">
@@ -5102,19 +5102,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I12" t="n">
         <v>51.2467865680031</v>
@@ -5123,22 +5123,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L12" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M12" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N12" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P12" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q12" t="n">
         <v>2562.339328400155</v>
@@ -5187,13 +5187,13 @@
         <v>53.04593830764878</v>
       </c>
       <c r="F13" t="n">
-        <v>53.04593830764878</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G13" t="n">
-        <v>53.04593830764878</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H13" t="n">
-        <v>53.04593830764878</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I13" t="n">
         <v>51.2467865680031</v>
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.2769458819316</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C14" t="n">
-        <v>117.6204357321147</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D14" t="n">
-        <v>117.6204357321147</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E14" t="n">
-        <v>117.6204357321147</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F14" t="n">
-        <v>117.6204357321147</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G14" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H14" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J14" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
@@ -5305,25 +5305,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U14" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V14" t="n">
-        <v>1644.250531453059</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W14" t="n">
-        <v>1291.481876182945</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X14" t="n">
-        <v>918.0161179218651</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="Y14" t="n">
-        <v>527.8767859460534</v>
+        <v>1694.732133680699</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K15" t="n">
-        <v>423.148951518066</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L15" t="n">
-        <v>717.8525085495377</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.399656105703</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O15" t="n">
-        <v>1800.470091281865</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P15" t="n">
-        <v>2362.930966067699</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q15" t="n">
         <v>2562.339328400155</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.24678656800311</v>
+        <v>831.7113734044287</v>
       </c>
       <c r="C16" t="n">
-        <v>51.24678656800311</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="D16" t="n">
-        <v>51.24678656800311</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E16" t="n">
-        <v>51.24678656800311</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F16" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G16" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H16" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K16" t="n">
         <v>248.4064713020475</v>
@@ -5460,28 +5460,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U16" t="n">
-        <v>825.1371474485136</v>
+        <v>1375.813031647276</v>
       </c>
       <c r="V16" t="n">
-        <v>570.4526592426267</v>
+        <v>1121.128543441389</v>
       </c>
       <c r="W16" t="n">
-        <v>281.0354892056661</v>
+        <v>831.7113734044287</v>
       </c>
       <c r="X16" t="n">
-        <v>53.04593830764878</v>
+        <v>831.7113734044287</v>
       </c>
       <c r="Y16" t="n">
-        <v>51.24678656800311</v>
+        <v>831.7113734044287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1412.134398099142</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C17" t="n">
-        <v>1043.17188115873</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D17" t="n">
-        <v>684.90618255198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E17" t="n">
-        <v>684.90618255198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>684.90618255198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>269.2014322762689</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>117.6204357321147</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362817</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816086</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872917</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.470313923562</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>2562.339328400155</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2562.339328400155</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2562.339328400155</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2562.339328400155</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2188.873570139076</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y17" t="n">
-        <v>1798.734238163264</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966389</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155119</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542605</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>448.679247148805</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>302.14468917569</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>165.443278618252</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057901</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>238.4273302370161</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>684.9695361605188</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1117.223096727985</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1480.485115687206</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1867.770244284151</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2199.840679460312</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2447.023413292609</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087194</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.279776881661</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>979.3205878948403</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C19" t="n">
-        <v>810.3844049669334</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D19" t="n">
-        <v>660.2677655545976</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E19" t="n">
-        <v>512.3546719722045</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>473.8272960668249</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>305.8408313751036</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>157.1019332386098</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312198</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020475</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693233</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096585</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999034</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171023</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1636.446120074497</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1636.446120074497</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1636.446120074497</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>1381.76163186861</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>1381.76163186861</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X19" t="n">
-        <v>1381.76163186861</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y19" t="n">
-        <v>1160.96905272508</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1203.388756704966</v>
+        <v>1514.348043559527</v>
       </c>
       <c r="C20" t="n">
-        <v>834.4262397645546</v>
+        <v>1514.348043559527</v>
       </c>
       <c r="D20" t="n">
-        <v>476.1605411578041</v>
+        <v>1156.082344952777</v>
       </c>
       <c r="E20" t="n">
-        <v>476.1605411578041</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>476.1605411578041</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>60.45579088209291</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>60.45579088209291</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>187.5281822362819</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816084</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>795.755353087291</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1220.470313923561</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>2562.339328400155</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T20" t="n">
-        <v>2353.59368700598</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U20" t="n">
-        <v>2353.59368700598</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V20" t="n">
-        <v>2353.59368700598</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W20" t="n">
-        <v>2353.59368700598</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X20" t="n">
-        <v>1980.1279287449</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y20" t="n">
-        <v>1589.988596769088</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966384</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155114</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542601</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488045</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756896</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182518</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057899</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I21" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5972052500114</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>507.2413987429752</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>801.944955774447</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.206974733667</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.492103330612</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>1884.562538506774</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2447.023413292609</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047137</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.27977688166</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.04593830764924</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C22" t="n">
-        <v>51.2467865680031</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D22" t="n">
-        <v>51.2467865680031</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>51.2467865680031</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>51.2467865680031</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H22" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I22" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312199</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>248.4064713020476</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693235</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096588</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1533.86271359008</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1337.233965749941</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1114.255484944676</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>825.137147448514</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V22" t="n">
-        <v>570.4526592426272</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W22" t="n">
-        <v>281.0354892056666</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X22" t="n">
-        <v>53.04593830764924</v>
+        <v>918.7467562092049</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.04593830764924</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1559.116588708439</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.154071768027</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3040.384406353023</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3040.384406353023</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2709.321519009452</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2709.321519009452</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2335.855760748373</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1945.716428772561</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>912.4415581410489</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C25" t="n">
-        <v>912.4415581410489</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H25" t="n">
         <v>163.837793613838</v>
@@ -6177,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.507193008249</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>1094.090022971289</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>1094.090022971289</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>1094.090022971289</v>
+        <v>461.8675266085669</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C26" t="n">
-        <v>552.8079389392135</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D26" t="n">
-        <v>519.4949199823222</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
@@ -6226,10 +6226,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1837.464090846021</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="V28" t="n">
-        <v>1837.464090846021</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.044275313594</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1767.87852028569</v>
+        <v>1896.503151925171</v>
       </c>
       <c r="C29" t="n">
-        <v>1398.916003345278</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D29" t="n">
-        <v>1040.650304738528</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E29" t="n">
-        <v>1040.650304738528</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>629.6643999489202</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792696</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W29" t="n">
-        <v>2531.483610522581</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X29" t="n">
-        <v>2158.017852261502</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.87852028569</v>
+        <v>2283.102991989293</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1007.446783179745</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>838.5106002518381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>688.3939608395024</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>540.4808672571093</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6654,19 +6654,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V31" t="n">
-        <v>1927.294548088493</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W31" t="n">
-        <v>1637.877378051532</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X31" t="n">
-        <v>1409.887827153515</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y31" t="n">
-        <v>1189.095248009985</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3281.996069815786</v>
       </c>
       <c r="T32" t="n">
-        <v>3079.909711953368</v>
+        <v>3076.018322200008</v>
       </c>
       <c r="U32" t="n">
-        <v>3079.909711953368</v>
+        <v>3076.018322200008</v>
       </c>
       <c r="V32" t="n">
-        <v>3079.909711953368</v>
+        <v>2744.955434856437</v>
       </c>
       <c r="W32" t="n">
-        <v>3079.909711953368</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="X32" t="n">
-        <v>3079.909711953368</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y32" t="n">
-        <v>2689.770379977556</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.823389952861</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>1739.201569949316</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>1517.434954518842</v>
       </c>
       <c r="U34" t="n">
-        <v>2533.219997888694</v>
+        <v>1228.332087644485</v>
       </c>
       <c r="V34" t="n">
-        <v>2278.535509682807</v>
+        <v>973.6475994385985</v>
       </c>
       <c r="W34" t="n">
-        <v>1989.118339645846</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X34" t="n">
-        <v>1761.128788747829</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y34" t="n">
-        <v>1540.336209604299</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1477.112184968822</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C35" t="n">
-        <v>1108.149668028411</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D35" t="n">
-        <v>749.8839694216604</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="E35" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F35" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y35" t="n">
-        <v>1477.112184968822</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>463.6594280995014</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C37" t="n">
-        <v>294.7232451715945</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D37" t="n">
-        <v>144.6066057592588</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1094.090022971289</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>866.1004720732712</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>645.3078929297411</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1032.06112435253</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C38" t="n">
-        <v>663.0986074121186</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D38" t="n">
-        <v>304.832908805368</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E38" t="n">
-        <v>304.832908805368</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>304.832908805368</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.034709923658</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="W38" t="n">
-        <v>2182.266054653544</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X38" t="n">
-        <v>1808.800296392464</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y38" t="n">
-        <v>1418.660964416652</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142.0249360836216</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C40" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7365,19 +7365,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1189.187973331195</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621296</v>
+        <v>934.5034851253081</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251691</v>
+        <v>645.0863150883474</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271517</v>
+        <v>417.0967641903301</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.0249360836216</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1477.112184968822</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C41" t="n">
-        <v>1108.149668028411</v>
+        <v>1259.215687003708</v>
       </c>
       <c r="D41" t="n">
-        <v>749.8839694216604</v>
+        <v>1259.215687003708</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>873.4274344054638</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3178.079294545563</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2924.548817819399</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>2593.485930475828</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2240.717275205714</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X41" t="n">
-        <v>1867.251516944634</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y41" t="n">
-        <v>1477.112184968822</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="42">
@@ -7596,25 +7596,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.0249360836216</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796265</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392149</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>494.2972677909589</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>108.5090151927147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
         <v>108.5090151927147</v>
@@ -7645,55 +7645,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="C46" t="n">
-        <v>872.3234075408147</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F46" t="n">
         <v>477.7578170212613</v>
@@ -7803,7 +7803,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y46" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14.10259721012932</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>27.33950104227281</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.06181565066456</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.96765241467942</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>27.40733650507474</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.641717224085113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>60.09197056799512</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>142.9938737355457</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>135.0422469790565</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>156.1202345089819</v>
+        <v>98.86065188594068</v>
       </c>
       <c r="P4" t="n">
-        <v>31.01653159757356</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>73.01783107116266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,25 +8376,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>42.56275186471078</v>
+        <v>49.70416500698886</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457084</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711117</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457083</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711116</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>46.56605103777598</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>20.93778120154991</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.9418658837474</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>20.93778120154991</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.9393975111061</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.93778120154991</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.93778120154988</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>348.2863176346415</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>270.961469662845</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>319.3306686698467</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>134.6446478104794</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.3120401847919</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>38.79466893374187</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>72.11117287858409</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1882960738881</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>227.3567932505335</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.15887622193185</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2911005550289</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>102.0713154153728</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>53.16211366621027</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>34.81568719904321</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>9.760686765158084</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.9227512258785</v>
+        <v>7.88401062568127</v>
       </c>
       <c r="U3" t="n">
-        <v>100.4688541637005</v>
+        <v>60.6912312339964</v>
       </c>
       <c r="V3" t="n">
-        <v>90.42627972148978</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.1086686271243</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>12.00832057727621</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>30.97981141132914</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.28055101240928</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>137.6214924937145</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>208.6403282918078</v>
+        <v>41.6077186194016</v>
       </c>
       <c r="T4" t="n">
-        <v>224.175716303489</v>
+        <v>36.19408632378014</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2709033165999</v>
+        <v>98.73949432713033</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750805</v>
       </c>
       <c r="W4" t="n">
-        <v>147.6623858601676</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>83.33534796110166</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>167.068097600207</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>173.1089558044324</v>
       </c>
       <c r="H5" t="n">
-        <v>163.0865880738091</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>61.92608729899364</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.7153815510931</v>
+        <v>109.4330205759086</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>101.5507253350131</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11.50893333199742</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941518</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715752</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553084</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>19.25466862917628</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378014</v>
+        <v>12.1500639977217</v>
       </c>
       <c r="U7" t="n">
-        <v>98.73949432713033</v>
+        <v>46.45270651659257</v>
       </c>
       <c r="V7" t="n">
-        <v>86.96510614773348</v>
+        <v>12.32969518232358</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>46.71505019508658</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>333.3226823396058</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.96857515763991</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="9">
@@ -23105,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>165.849931940296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>23.5607273933033</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>98.73949432713042</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>98.99741117027114</v>
+        <v>97.32636493395771</v>
       </c>
       <c r="X10" t="n">
-        <v>60.53711821294272</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>261.340663036748</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
         <v>65.70991267247049</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>141.2974969098807</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>143.639887800682</v>
       </c>
       <c r="G13" t="n">
         <v>166.3066000448042</v>
@@ -23436,7 +23436,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
-        <v>103.0154349816514</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>322.7659318437148</v>
       </c>
       <c r="C14" t="n">
-        <v>341.8529467226888</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>104.7965952039006</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>28.2003965782522</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.8034931298456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>302.8185005949821</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>150.9533659836928</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>107.2789458766055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>192.2265546147626</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>162.6305450049655</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>56.59299840152156</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>165.4656608763782</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551288</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7965952039006</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>52.11982129457388</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>237.1991780625845</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>30.73653082421075</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>10.13357997912314</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>37.94298661820659</v>
       </c>
     </row>
     <row r="26">
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>321.7031528533606</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>158.5207149607594</v>
       </c>
     </row>
     <row r="27">
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>92.48900111330045</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>62.24727380904375</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>148.0087293592046</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>66.01410751272385</v>
       </c>
       <c r="T32" t="n">
-        <v>69.86658336855169</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.556976973656759</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.755192499266968</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.0544701348239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>113.4197768217115</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>69.12041821276458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>174.9841412040007</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>168.5239746201147</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>21.59472895491427</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>53.73645647354672</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>355.1363007618637</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>57.86670834664889</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>296.7574771839096</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>81.49358325958832</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>112.8298744622809</v>
       </c>
       <c r="D46" t="n">
-        <v>49.85054907335493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440859.3024420099</v>
+        <v>477528.1415360585</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477528.1415360585</v>
+        <v>521612.5959842275</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>477528.1415360584</v>
+        <v>541049.5068423846</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809975.8798666354</v>
+        <v>809975.8798666353</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809975.8798666355</v>
+        <v>809975.8798666352</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>809975.8798666355</v>
+        <v>893911.7849045418</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>809975.8798666353</v>
+        <v>893911.784904542</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893911.7849045418</v>
+        <v>893911.7849045419</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893911.784904542</v>
+        <v>893911.7849045418</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893911.7849045418</v>
+        <v>893911.7849045421</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893911.7849045418</v>
+        <v>893911.7849045419</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893911.7849045419</v>
+        <v>893911.7849045418</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>893911.784904542</v>
+        <v>893911.7849045419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149076.8868101134</v>
+        <v>162397.4547967404</v>
       </c>
       <c r="C2" t="n">
-        <v>162397.4547967404</v>
+        <v>177065.6136843683</v>
       </c>
       <c r="D2" t="n">
-        <v>162397.4547967404</v>
+        <v>183569.9230774011</v>
       </c>
       <c r="E2" t="n">
         <v>275374.4674448775</v>
       </c>
       <c r="F2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="G2" t="n">
-        <v>275374.4674448775</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="H2" t="n">
-        <v>275374.4674448775</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="I2" t="n">
+        <v>306897.3890738287</v>
+      </c>
+      <c r="J2" t="n">
         <v>306897.3890738286</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>306897.3890738286</v>
+      </c>
+      <c r="L2" t="n">
+        <v>306897.3890738287</v>
+      </c>
+      <c r="M2" t="n">
         <v>306897.3890738288</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>306897.3890738288</v>
       </c>
-      <c r="L2" t="n">
-        <v>306897.3890738286</v>
-      </c>
-      <c r="M2" t="n">
-        <v>306897.3890738286</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>306897.3890738287</v>
-      </c>
-      <c r="O2" t="n">
-        <v>306897.3890738288</v>
       </c>
       <c r="P2" t="n">
         <v>306897.3890738288</v>
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>519190.8280823061</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>68484.2535899411</v>
+        <v>57873.59701082196</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>25049.96918112301</v>
       </c>
       <c r="E3" t="n">
-        <v>445061.6638164769</v>
+        <v>369622.2714301428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>173363.8810341909</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>167954.0554034777</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>37251.38329267476</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>11620.49456370862</v>
+        <v>13455.80667946128</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6050.37620037978</v>
       </c>
       <c r="M3" t="n">
-        <v>112904.1760744625</v>
+        <v>93917.74874676272</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45920.21121431062</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10316.20064253111</v>
+        <v>8542.551886960249</v>
       </c>
       <c r="C4" t="n">
-        <v>8542.551886960251</v>
+        <v>10297.66183273946</v>
       </c>
       <c r="D4" t="n">
-        <v>8542.551886960247</v>
+        <v>10965.07562050203</v>
       </c>
       <c r="E4" t="n">
-        <v>14971.45584523219</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="F4" t="n">
-        <v>14971.45584523219</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="G4" t="n">
-        <v>14971.45584523219</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="H4" t="n">
-        <v>14971.45584523218</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="I4" t="n">
         <v>7940.571207054552</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52950.29253278679</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="E5" t="n">
         <v>59310.17243984471</v>
@@ -26484,10 +26484,10 @@
         <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984471</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.17243984471</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26496,16 +26496,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-433380.4344475105</v>
+        <v>-505991.7634472448</v>
       </c>
       <c r="C6" t="n">
-        <v>28384.84890822547</v>
+        <v>37059.58689784702</v>
       </c>
       <c r="D6" t="n">
-        <v>96869.10249816655</v>
+        <v>74179.35988475842</v>
       </c>
       <c r="E6" t="n">
-        <v>-243968.8246566763</v>
+        <v>-173756.8949922338</v>
       </c>
       <c r="F6" t="n">
-        <v>201092.8391598006</v>
+        <v>195865.3764379089</v>
       </c>
       <c r="G6" t="n">
-        <v>201092.8391598006</v>
+        <v>47810.40697312891</v>
       </c>
       <c r="H6" t="n">
-        <v>201092.8391598004</v>
+        <v>221174.2880073196</v>
       </c>
       <c r="I6" t="n">
-        <v>56696.42190190309</v>
+        <v>221174.2880073202</v>
       </c>
       <c r="J6" t="n">
-        <v>187399.0940127062</v>
+        <v>172109.3432787751</v>
       </c>
       <c r="K6" t="n">
-        <v>213029.9827416723</v>
+        <v>207718.4813278585</v>
       </c>
       <c r="L6" t="n">
-        <v>224650.4773053808</v>
+        <v>215123.91180694</v>
       </c>
       <c r="M6" t="n">
-        <v>111746.3012309183</v>
+        <v>127256.5392605572</v>
       </c>
       <c r="N6" t="n">
-        <v>224650.4773053809</v>
+        <v>221174.2880073199</v>
       </c>
       <c r="O6" t="n">
-        <v>224650.4773053809</v>
+        <v>175254.0767930092</v>
       </c>
       <c r="P6" t="n">
-        <v>224650.4773053809</v>
+        <v>221174.2880073197</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.2814055581795</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="E3" t="n">
         <v>934.0648921175391</v>
@@ -26752,10 +26752,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175391</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175393</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.3743074279355</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000389</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>640.5848321000387</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26816,22 +26816,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.2814055581795</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>59.18853535472505</v>
+        <v>45.00615942515992</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20.57891343141364</v>
       </c>
       <c r="E3" t="n">
-        <v>385.5949512046345</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.3743074279355</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>45.15127973838446</v>
+        <v>52.28236097518447</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>23.90593186000171</v>
       </c>
       <c r="E4" t="n">
-        <v>453.0592449337189</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>142.3743074279355</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>45.1512797383848</v>
+        <v>52.28236097518447</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>23.90593186000206</v>
       </c>
       <c r="M4" t="n">
-        <v>453.0592449337191</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>142.3743074279355</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>45.15127973838446</v>
+        <v>52.28236097518447</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>23.90593186000171</v>
       </c>
       <c r="M4" t="n">
-        <v>453.0592449337189</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.966960424354489</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>20.14413344592042</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>75.83124175992651</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>166.943307316557</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>250.2047420794825</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>310.4011071663213</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>345.3810396129354</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>350.9696659186326</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>331.4107031989577</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>282.8513677227062</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.409597525511</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>123.5570777563578</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>44.82211066997797</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>8.610369257611781</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1573568339483591</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.052416608181745</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.16412882112369</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>36.23451918520481</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>99.43029016159196</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>169.9422029097688</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>228.5082639826196</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6583660292078</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>273.7160195112688</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>250.3966830878732</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>200.9654135395474</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>134.3400568619364</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>65.34214695359992</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>19.54817691074424</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.241977468943083</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06923793474879902</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8823107313344219</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>7.844544502227866</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>26.53348999322063</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>62.37936870534363</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>102.5084649677628</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>131.1755427294831</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>138.3062176399949</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>135.0176049141122</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>124.7106113707963</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>106.7114724515741</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>73.88149223928511</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>39.671898883455</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>15.37626974516442</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.769873124792529</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04812603989096853</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755034742181059</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336178</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>318.7038799491899</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857142</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>592.5726450767379</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730003</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342223</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166594</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190644</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147051</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235311</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745096</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>16.43766458389759</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>19.4038763438002</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436493</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177243</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>509.0653662040588</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>522.5388116762072</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405674</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378625</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.462496416876</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>124.741722762414</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997901</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000171</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>50.6538797233577</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067958</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154672</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759585</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523478</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069561</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.75503474218106</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>318.70387994919</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857143</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>592.5726450767381</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730005</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166596</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.5015080147052</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235312</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745099</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>16.4376645838976</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436496</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>509.0653662040589</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>522.5388116762073</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405675</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>383.6539365378626</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>14.97566335231072</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>50.65387972335772</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>203.7180217169137</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.0437987097484</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759587</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>30.11489103450199</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>74.63469219633407</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>142.3743074279355</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>121.5566023220417</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>142.3743074279355</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>51.61837196743664</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.071560065740915</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>32.10076393540984</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>89.95388420274546</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>124.5243321071895</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>142.3743074279355</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>107.8004386434288</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>66.99100612521713</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>80.23897314187997</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L4" t="n">
-        <v>56.38283701623992</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>142.3743074279355</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>142.3743074279355</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>142.3743074279355</v>
+        <v>100.2010091933412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868039</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>66.78462588923419</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>28.45844197068227</v>
+        <v>45.02901441547746</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880152</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M7" t="n">
-        <v>187.52558716632</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N7" t="n">
-        <v>187.52558716632</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663199</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663199</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>28.45844197068212</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K12" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L12" t="n">
         <v>297.6803606378501</v>
@@ -35509,7 +35509,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K15" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L15" t="n">
         <v>297.6803606378501</v>
@@ -35746,7 +35746,7 @@
         <v>568.1422977634694</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.4225882146019</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225036</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407337</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067507</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457276</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376314</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949726</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7456939637948</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402556</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939901</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>189.0712562313262</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>451.0527332560634</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>436.6197581489562</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820404</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>391.1970995928739</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>335.424681996123</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>249.6795291235322</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.4807223308545</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870592</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>173.424759342349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>278.0112915831069</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860244</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>262.6644876295069</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.881755458054</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5646495407338</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067509</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457278</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949728</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>308.745693963795</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939907</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.98022089091745</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>397.6203974676403</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820406</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>391.197099592874</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>335.4246819961231</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>568.1422977634695</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.4807223308546</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870595</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>278.011291583107</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>262.664487629507</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.88175545805406</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436162.7483735883</v>
+        <v>484485.6105790666</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12382612.22781478</v>
+        <v>12289140.99995638</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7773756.274429784</v>
+        <v>8372755.536366513</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9089439.735357987</v>
+        <v>8828211.364300221</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>117.2670251968445</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="D2" t="n">
-        <v>6.396723986041487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>21.12316271950942</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
     </row>
     <row r="3">
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32.071591919214</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.3140530013673</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>165.1725371760945</v>
+        <v>112.1232849534861</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>135.9554396389582</v>
       </c>
       <c r="S4" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="V4" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>2.434748277395795</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>239.8079481415044</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>239.8079481415044</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>56.56995359489672</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>239.8079481415044</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>182.5570120086798</v>
       </c>
     </row>
     <row r="6">
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>43.51848705837075</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183515</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>239.8079481415044</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>138.261311358952</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T7" t="n">
-        <v>211.222840723037</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U7" t="n">
-        <v>239.8079481415044</v>
+        <v>32.35016756540409</v>
       </c>
       <c r="V7" t="n">
-        <v>239.8079481415044</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>239.8079481415044</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>79.51149230610424</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.7138800015061</v>
+        <v>165.1725371760945</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>182.2122578101742</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U10" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>189.1966334026333</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>243.4099782806118</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
-        <v>65.36068807035309</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.781160222249223</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2271541212006</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>85.65309504150858</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.96790981976573</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>31.87368577928336</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>258.0267575429484</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>210.9702857012246</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79.91534106849849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>14.31363903300493</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>220.6198333541069</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>94.29644372182844</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>130.5913438932718</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>219.2998250672963</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.2942148585652</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>173.5898340944633</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.5346636008961</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>190.192112940037</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>42.01201317445354</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.6416667338882</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>164.6037977632912</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>227.7172236952942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>140.5010290442968</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>193.7228370923124</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>303.0256179619638</v>
+        <v>60.46288169317431</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>150.4771497629682</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>102.8695072550965</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.17365427545198</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>152.6586601346114</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>186.2120483577851</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>378.1751775729948</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>303.420464349318</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>53.82704427691639</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>17.25588147840214</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>159.2282838500202</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>196.6522795239231</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>232.4753817320662</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334145</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>51.73974497984775</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>64.77203581859861</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>54.79134020099044</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>84.6947366044287</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>126.5388824951704</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>267.7473854578247</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>54.41694663634699</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>166.1133665699231</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.8831693494283</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294346</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>52.78571257950537</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>139.5792431012689</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>267.8232065737888</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>402.7560998290628</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>516.8341434361913</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>607.1384398313492</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823979</v>
+        <v>607.1384398313492</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823979</v>
+        <v>607.1384398313492</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823979</v>
+        <v>607.1384398313492</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823979</v>
+        <v>607.1384398313492</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823979</v>
+        <v>607.1384398313492</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823979</v>
+        <v>448.4326398740629</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659131</v>
+        <v>289.7268399167766</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>51.41474465792135</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>149.9695119216956</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>284.3351449627281</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>436.6656814086847</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>553.7985668721251</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>628.4749678308535</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>596.0794204377082</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>443.2369426585493</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487949</v>
+        <v>443.2369426585493</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062752</v>
+        <v>329.9810992711896</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897904</v>
+        <v>171.2752993139034</v>
       </c>
       <c r="W3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>57.00537906705642</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692152</v>
+        <v>212.5529336051927</v>
       </c>
       <c r="N4" t="n">
-        <v>650.903349563872</v>
+        <v>368.100488143329</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652798</v>
+        <v>521.0882178492861</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652798</v>
+        <v>628.4749678308536</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652798</v>
+        <v>491.1462409228151</v>
       </c>
       <c r="S4" t="n">
-        <v>583.26140202276</v>
+        <v>491.1462409228151</v>
       </c>
       <c r="T4" t="n">
-        <v>393.8416170062752</v>
+        <v>491.1462409228151</v>
       </c>
       <c r="U4" t="n">
-        <v>204.4218319897904</v>
+        <v>332.4404409655288</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>173.7346410082425</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.02884105095626</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>12.56949935661707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.7865044148614</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C5" t="n">
-        <v>560.7865044148614</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D5" t="n">
-        <v>560.7865044148614</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E5" t="n">
-        <v>560.7865044148614</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F5" t="n">
-        <v>318.5562537668771</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G5" t="n">
-        <v>76.3260031188928</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>76.3260031188928</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>40.41888584470354</v>
+        <v>21.03371160678496</v>
       </c>
       <c r="K5" t="n">
-        <v>122.9820404192956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>262.310696260548</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>449.0101090859555</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
-        <v>643.3443219779374</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O5" t="n">
-        <v>813.5133472948967</v>
+        <v>649.4845259985583</v>
       </c>
       <c r="P5" t="n">
-        <v>924.2476725444228</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>959.2317925660177</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S5" t="n">
-        <v>803.0167550628457</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T5" t="n">
-        <v>803.0167550628457</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="U5" t="n">
-        <v>803.0167550628457</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="V5" t="n">
-        <v>803.0167550628457</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="W5" t="n">
-        <v>560.7865044148614</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="X5" t="n">
-        <v>560.7865044148614</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.7865044148614</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460.7375340884774</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>460.7375340884774</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>460.7375340884774</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>301.5000790830219</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>257.5420113472939</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>120.1006137065158</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>85.3014154816622</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>152.9092351450191</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>290.1388331607128</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>469.6361695153174</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>668.2929111679819</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>827.8052238367422</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>936.4948513640409</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>938.1198929682045</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S6" t="n">
-        <v>938.1198929682045</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T6" t="n">
-        <v>938.1198929682045</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U6" t="n">
-        <v>938.1198929682045</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V6" t="n">
-        <v>702.9677847364617</v>
+        <v>344.079722251358</v>
       </c>
       <c r="W6" t="n">
-        <v>460.7375340884774</v>
+        <v>154.6599372348733</v>
       </c>
       <c r="X6" t="n">
-        <v>460.7375340884774</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y6" t="n">
-        <v>460.7375340884774</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>63.76336012264304</v>
+        <v>43.1759045242809</v>
       </c>
       <c r="L7" t="n">
-        <v>248.5963550234613</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M7" t="n">
-        <v>453.8659557426991</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N7" t="n">
-        <v>659.6893205788033</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O7" t="n">
-        <v>833.7842159674021</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P7" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q7" t="n">
-        <v>959.2317925660177</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R7" t="n">
-        <v>959.2317925660177</v>
+        <v>615.9383389575114</v>
       </c>
       <c r="S7" t="n">
-        <v>959.2317925660177</v>
+        <v>426.5185539410267</v>
       </c>
       <c r="T7" t="n">
-        <v>745.8753877952732</v>
+        <v>237.0987689245419</v>
       </c>
       <c r="U7" t="n">
-        <v>503.6451371472889</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="V7" t="n">
-        <v>261.4148864993047</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.18463585132035</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.789405660333</v>
+        <v>393.841617006275</v>
       </c>
       <c r="C8" t="n">
-        <v>367.789405660333</v>
+        <v>393.841617006275</v>
       </c>
       <c r="D8" t="n">
-        <v>367.789405660333</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E8" t="n">
-        <v>367.789405660333</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F8" t="n">
-        <v>101.4117490931551</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>142.2640879052547</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515909</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030606</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991318</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358416</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>900.5447187946889</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>900.5447187946889</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U8" t="n">
-        <v>900.5447187946889</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V8" t="n">
-        <v>900.5447187946889</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W8" t="n">
-        <v>900.5447187946889</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X8" t="n">
-        <v>900.5447187946889</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y8" t="n">
-        <v>634.167062227511</v>
+        <v>583.2614020227597</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.3310045827856</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>449.8779753016586</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>449.8779753016586</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>449.8779753016586</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>303.3434173285435</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>165.9467308776107</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>65.46256898749988</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957465</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>242.5255548298713</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>433.1262439263951</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N9" t="n">
-        <v>643.1802110290001</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O9" t="n">
-        <v>813.1187583557299</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>930.1763583891335</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>1036.519636212815</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U9" t="n">
-        <v>808.3837902496282</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V9" t="n">
-        <v>808.3837902496282</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W9" t="n">
-        <v>808.3837902496282</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X9" t="n">
-        <v>624.3310045827856</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>624.3310045827856</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551008</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375335</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227045</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075542</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R10" t="n">
-        <v>926.0629918407075</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S10" t="n">
-        <v>719.2759572512189</v>
+        <v>557.3057129681424</v>
       </c>
       <c r="T10" t="n">
-        <v>493.8069210092332</v>
+        <v>367.8859279516577</v>
       </c>
       <c r="U10" t="n">
-        <v>227.4292644420552</v>
+        <v>178.4661429351729</v>
       </c>
       <c r="V10" t="n">
-        <v>227.4292644420552</v>
+        <v>178.4661429351729</v>
       </c>
       <c r="W10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.32155393434483</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>795.3007377729978</v>
+        <v>1452.155307492516</v>
       </c>
       <c r="C11" t="n">
-        <v>795.3007377729978</v>
+        <v>1206.286642562605</v>
       </c>
       <c r="D11" t="n">
-        <v>437.0350391662473</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E11" t="n">
-        <v>51.2467865680031</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F11" t="n">
         <v>51.2467865680031</v>
@@ -5044,10 +5044,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L11" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M11" t="n">
         <v>1220.470313923562</v>
@@ -5068,25 +5068,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T11" t="n">
-        <v>2496.318431359394</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U11" t="n">
-        <v>2242.737370623574</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V11" t="n">
-        <v>1911.674483280003</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W11" t="n">
-        <v>1558.905828009889</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X11" t="n">
-        <v>1185.440069748809</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y11" t="n">
-        <v>795.3007377729978</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I12" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K12" t="n">
-        <v>614.5430248380227</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L12" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M12" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N12" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P12" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q12" t="n">
         <v>2562.339328400155</v>
@@ -5153,16 +5153,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.04593830764878</v>
+        <v>535.0593816855418</v>
       </c>
       <c r="C13" t="n">
-        <v>53.04593830764878</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D13" t="n">
-        <v>53.04593830764878</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E13" t="n">
-        <v>53.04593830764878</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F13" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G13" t="n">
         <v>51.2467865680031</v>
@@ -5223,28 +5223,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U13" t="n">
-        <v>825.1371474485136</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V13" t="n">
-        <v>570.4526592426267</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W13" t="n">
-        <v>281.0354892056661</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X13" t="n">
-        <v>53.04593830764878</v>
+        <v>716.7078465157815</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.04593830764878</v>
+        <v>716.7078465157815</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1634.158487398107</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C14" t="n">
-        <v>1634.158487398107</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="D14" t="n">
-        <v>1634.158487398107</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="E14" t="n">
-        <v>1248.370234799863</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F14" t="n">
-        <v>837.3843300102556</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G14" t="n">
         <v>421.6795797345444</v>
@@ -5278,13 +5278,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L14" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M14" t="n">
         <v>1220.470313923562</v>
@@ -5305,25 +5305,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T14" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U14" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V14" t="n">
-        <v>2437.640120926625</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W14" t="n">
-        <v>2084.871465656511</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X14" t="n">
-        <v>2084.871465656511</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y14" t="n">
-        <v>1694.732133680699</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E15" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I15" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>507.2413987429755</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L15" t="n">
-        <v>801.9449557744472</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M15" t="n">
-        <v>1165.206974733667</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N15" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O15" t="n">
-        <v>1884.562538506774</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P15" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q15" t="n">
         <v>2562.339328400155</v>
@@ -5390,7 +5390,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
         <v>1769.368633815395</v>
@@ -5399,7 +5399,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
         <v>1099.519478116707</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.7113734044287</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="C16" t="n">
-        <v>662.7751904765219</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D16" t="n">
-        <v>662.7751904765219</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E16" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F16" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G16" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H16" t="n">
         <v>51.2467865680031</v>
@@ -5436,25 +5436,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N16" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q16" t="n">
         <v>1636.446120074497</v>
@@ -5466,22 +5466,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U16" t="n">
-        <v>1375.813031647276</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V16" t="n">
-        <v>1121.128543441389</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W16" t="n">
-        <v>831.7113734044287</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X16" t="n">
-        <v>831.7113734044287</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y16" t="n">
-        <v>831.7113734044287</v>
+        <v>367.1463448421176</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1601.11348746897</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="C17" t="n">
-        <v>1232.150970528558</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816097</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>1960.855197551171</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>1608.086542281057</v>
       </c>
       <c r="X17" t="n">
-        <v>2071.975386180639</v>
+        <v>1234.620784019977</v>
       </c>
       <c r="Y17" t="n">
-        <v>1681.836054204827</v>
+        <v>1234.620784019977</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>533.4780323548191</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C19" t="n">
-        <v>364.5418494269122</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D19" t="n">
-        <v>214.4252100145765</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1216.969055715058</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>927.850718218896</v>
       </c>
       <c r="V19" t="n">
-        <v>1259.157560278958</v>
+        <v>927.850718218896</v>
       </c>
       <c r="W19" t="n">
-        <v>1163.908627226606</v>
+        <v>927.850718218896</v>
       </c>
       <c r="X19" t="n">
-        <v>935.919076328589</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.1264971850588</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1514.348043559527</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C20" t="n">
-        <v>1514.348043559527</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="D20" t="n">
-        <v>1156.082344952777</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136267</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136267</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410104</v>
+        <v>2100.012626270158</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066533</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796419</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X20" t="n">
-        <v>1904.487375535339</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y20" t="n">
-        <v>1514.348043559527</v>
+        <v>1378.810406950776</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927784</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064586</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.9541770656748</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="C22" t="n">
-        <v>529.0179941377679</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1509.886307086047</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1286.907826280783</v>
       </c>
       <c r="U22" t="n">
-        <v>1638.191681214137</v>
+        <v>997.7894887846204</v>
       </c>
       <c r="V22" t="n">
-        <v>1383.50719300825</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W22" t="n">
-        <v>1094.090022971289</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X22" t="n">
-        <v>918.7467562092049</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y22" t="n">
-        <v>697.9541770656748</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1661.795585684488</v>
+        <v>1506.396382525582</v>
       </c>
       <c r="C23" t="n">
-        <v>1292.833068744076</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="D23" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>1808.800296392464</v>
+        <v>1506.396382525582</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>461.8675266085669</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C25" t="n">
-        <v>461.8675266085669</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D25" t="n">
-        <v>311.7508871962311</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>163.837793613838</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
         <v>66.5121164321834</v>
@@ -6192,7 +6192,7 @@
         <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>461.8675266085669</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>958.1473305693546</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>572.3590779711103</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
         <v>406.0926155839475</v>
@@ -6238,13 +6238,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052368</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2961.784676410101</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2961.784676410101</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y26" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6293,46 +6293,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6414,22 +6414,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1539.929030488741</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1539.929030488741</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>1250.51186045178</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.51186045178</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1896.503151925171</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C29" t="n">
-        <v>1590.416669135309</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V29" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W29" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X29" t="n">
-        <v>2283.102991989293</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2283.102991989293</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>680.3679798527295</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C31" t="n">
-        <v>511.4317969248226</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124868</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6654,19 +6654,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1854.900232967364</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>1600.215744761477</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>1310.798574724517</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X31" t="n">
-        <v>1082.809023826499</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.0164446829692</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>971.2814123723974</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>585.4931597741531</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>585.4931597741531</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>170.4207096191496</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
@@ -6712,40 +6712,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3281.996069815786</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3076.018322200008</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U32" t="n">
-        <v>3076.018322200008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2744.955434856437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2392.186779586323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X32" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
@@ -6782,16 +6782,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.4482993600903</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218343</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218343</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218343</v>
+        <v>367.6027307327315</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>220.7127832348212</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1739.201569949316</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1517.434954518842</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U34" t="n">
-        <v>1228.332087644485</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>973.6475994385985</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>684.2304294016378</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X34" t="n">
-        <v>456.2408785036205</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.4482993600903</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1274.539111149741</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C35" t="n">
-        <v>905.5765942093292</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="D35" t="n">
-        <v>905.5765942093292</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="E35" t="n">
-        <v>523.5814653477182</v>
+        <v>372.9974339567471</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>372.9974339567471</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.744041450754</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2051.278283189674</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y35" t="n">
-        <v>1661.138951213863</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>270.9995076393842</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C37" t="n">
-        <v>216.6287558445192</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218343</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7140,7 +7140,7 @@
         <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.6479724696239</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1661.795585684488</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C38" t="n">
-        <v>1292.833068744076</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D38" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3164.769171255616</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W38" t="n">
-        <v>2812.000515985501</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X38" t="n">
-        <v>2438.534757724422</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y38" t="n">
-        <v>2048.39542574861</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.4482993600903</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
         <v>66.51211643218343</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1189.187973331195</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>934.5034851253081</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>645.0863150883474</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X40" t="n">
-        <v>417.0967641903301</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y40" t="n">
-        <v>417.0967641903301</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1628.17820394412</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>1259.215687003708</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>1259.215687003708</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>873.4274344054638</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3149.8888543296</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883006</v>
+        <v>3149.8888543296</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539436</v>
+        <v>2818.825966986029</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.243802269321</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.778044008242</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y41" t="n">
-        <v>2014.778044008242</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>271.9735439263277</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1530.147236421175</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.044369546818</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V43" t="n">
-        <v>986.3598813409312</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>453.6220087565674</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.35562273557</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
         <v>1320.35562273557</v>
@@ -7645,16 +7645,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7672,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883007</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539437</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W44" t="n">
-        <v>2470.560553036583</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2097.094794775503</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1706.955462799692</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.6375233676413</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C46" t="n">
-        <v>625.6709106036544</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D46" t="n">
-        <v>625.6709106036544</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>993.9492982142167</v>
       </c>
       <c r="X46" t="n">
-        <v>680.6375233676413</v>
+        <v>765.9597473161994</v>
       </c>
       <c r="Y46" t="n">
-        <v>680.6375233676413</v>
+        <v>545.1671681726692</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.091680627731932</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>49.27157002399059</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>22.1998689238026</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>43.08503958846999</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>151.9300289740654</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>144.1165101169799</v>
       </c>
       <c r="O4" t="n">
-        <v>98.86065188594068</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>73.01783107116266</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,25 +8376,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>49.70416500698886</v>
+        <v>42.56275186471065</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>193.327346787835</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>20.93778120154991</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R15" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>265.466816466636</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046876</v>
+        <v>208.1541498132941</v>
       </c>
       <c r="D2" t="n">
-        <v>348.2863176346415</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2531730278943</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.1238810212347</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1816877488572</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>212.6123587207556</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>229.1191966983402</v>
       </c>
     </row>
     <row r="3">
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2469034849667</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>51.64041629783932</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.88401062568127</v>
+        <v>195.7446060180399</v>
       </c>
       <c r="U3" t="n">
-        <v>60.6912312339964</v>
+        <v>113.7459514907622</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>75.68184519171186</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>94.57624120320619</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.07161528826</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.8026899798254</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>28.36014035361792</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>9.177839155320683</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>41.6077186194016</v>
+        <v>207.9945896499623</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378014</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713033</v>
+        <v>129.1501402676757</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750805</v>
+        <v>95.01890136611459</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>129.4042563788776</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>223.2749071116414</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>167.068097600207</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>173.1089558044324</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>61.92608729899364</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>109.4330205759086</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>203.6809266473738</v>
       </c>
     </row>
     <row r="6">
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>101.5507253350131</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>45.4458084395867</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,22 +22913,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
-        <v>11.88703501941518</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>67.51167384452546</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176904</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,25 +22986,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001187</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T7" t="n">
-        <v>12.1500639977217</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U7" t="n">
-        <v>46.45270651659257</v>
+        <v>253.9149139280462</v>
       </c>
       <c r="V7" t="n">
-        <v>12.32969518232358</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>46.71505019508658</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0199616619744</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.1621657402053</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G8" t="n">
-        <v>333.3226823396058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.5240586545474</v>
+        <v>221.0654014799591</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>60.6912312339964</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
-        <v>23.5607273933033</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>19.25466862917636</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>36.19408632378023</v>
       </c>
       <c r="U10" t="n">
-        <v>22.54475050117134</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>97.32636493395771</v>
+        <v>124.6935433343423</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>121.8629134903958</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.547702772954</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>141.2974969098807</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>143.639887800682</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>147.2515091551289</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>140.0565603475286</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>322.7659318437148</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>322.8093558413996</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
         <v>104.7965952039006</v>
@@ -23706,10 +23706,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>28.2003965782522</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>7.614367650870207</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.8185005949821</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>313.43861943713</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.1288626431050091</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>192.2265546147626</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>252.1424977702087</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>162.6305450049655</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>69.36824550317228</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>52.11982129457388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.1991780625845</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>196.0458257160166</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>106.6034598437588</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>37.94298661820659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>242.2722479784202</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>158.5207149607594</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5.932933602272385</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>92.48900111330045</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>62.24727380904375</v>
+        <v>304.8100100778332</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>68.10750358912662</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>191.738257132224</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.01410751272385</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>13.36714812441687</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>3.556976973656759</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>3.755192499266968</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>107.5012613041354</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>113.4197768217115</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25450,7 +25450,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>168.5239746201147</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>189.5856591321305</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>53.73645647354672</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>214.5414662356957</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>355.1363007618637</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>139.1459343210215</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>112.4554808976374</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>124.4562894637316</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>81.49358325958832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>112.8298744622809</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>120.4096317666679</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477528.1415360585</v>
+        <v>452742.7025022787</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>521612.5959842275</v>
+        <v>477528.1415360583</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>541049.5068423846</v>
+        <v>477528.1415360584</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809975.8798666353</v>
+        <v>809975.8798666352</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809975.8798666352</v>
+        <v>809975.8798666354</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893911.7849045418</v>
+        <v>809975.8798666355</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893911.784904542</v>
+        <v>809975.8798666352</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893911.7849045419</v>
+        <v>893911.7849045418</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893911.7849045418</v>
+        <v>893911.7849045419</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>893911.7849045421</v>
+        <v>893911.7849045419</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893911.7849045419</v>
+        <v>893911.7849045418</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893911.7849045418</v>
+        <v>893911.784904542</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162397.4547967404</v>
+        <v>153464.0580743208</v>
       </c>
       <c r="C2" t="n">
-        <v>177065.6136843683</v>
+        <v>162397.4547967403</v>
       </c>
       <c r="D2" t="n">
-        <v>183569.9230774011</v>
+        <v>162397.4547967403</v>
       </c>
       <c r="E2" t="n">
         <v>275374.4674448775</v>
       </c>
       <c r="F2" t="n">
+        <v>275374.4674448775</v>
+      </c>
+      <c r="G2" t="n">
+        <v>275374.4674448776</v>
+      </c>
+      <c r="H2" t="n">
         <v>275374.4674448774</v>
       </c>
-      <c r="G2" t="n">
-        <v>306897.3890738287</v>
-      </c>
-      <c r="H2" t="n">
-        <v>306897.3890738288</v>
-      </c>
       <c r="I2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="J2" t="n">
         <v>306897.3890738286</v>
       </c>
       <c r="K2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="L2" t="n">
         <v>306897.3890738287</v>
       </c>
       <c r="M2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="N2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="O2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="P2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738289</v>
       </c>
     </row>
     <row r="3">
@@ -26365,49 +26365,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>543932.1164916839</v>
       </c>
       <c r="C3" t="n">
-        <v>57873.59701082196</v>
+        <v>45009.9270747131</v>
       </c>
       <c r="D3" t="n">
-        <v>25049.96918112301</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369622.2714301428</v>
+        <v>445061.6638164769</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341909</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.967965428979369e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>167954.0554034779</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>41109.17612078396</v>
       </c>
       <c r="K3" t="n">
-        <v>13455.80667946128</v>
+        <v>7825.748937648714</v>
       </c>
       <c r="L3" t="n">
-        <v>6050.37620037978</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>93917.74874676272</v>
+        <v>112904.1760744624</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431062</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8542.551886960249</v>
+        <v>9538.336042721188</v>
       </c>
       <c r="C4" t="n">
-        <v>10297.66183273946</v>
+        <v>8542.551886960247</v>
       </c>
       <c r="D4" t="n">
-        <v>10965.07562050203</v>
+        <v>8542.551886960247</v>
       </c>
       <c r="E4" t="n">
         <v>14971.45584523218</v>
@@ -26432,10 +26432,10 @@
         <v>14971.45584523218</v>
       </c>
       <c r="G4" t="n">
-        <v>7940.571207054552</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="H4" t="n">
-        <v>7940.571207054552</v>
+        <v>14971.45584523218</v>
       </c>
       <c r="I4" t="n">
         <v>7940.571207054552</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>54294.69533421406</v>
       </c>
       <c r="C5" t="n">
-        <v>61145.70223437328</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
         <v>59310.17243984471</v>
@@ -26484,10 +26484,10 @@
         <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139333</v>
+        <v>59310.1724398447</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26496,22 +26496,22 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-505991.7634472448</v>
+        <v>-455501.1161185462</v>
       </c>
       <c r="C6" t="n">
-        <v>37059.58689784702</v>
+        <v>50708.77908099682</v>
       </c>
       <c r="D6" t="n">
-        <v>74179.35988475842</v>
+        <v>95718.70615570994</v>
       </c>
       <c r="E6" t="n">
-        <v>-173756.8949922338</v>
+        <v>-244491.5709288654</v>
       </c>
       <c r="F6" t="n">
-        <v>195865.3764379089</v>
+        <v>200570.0928876113</v>
       </c>
       <c r="G6" t="n">
-        <v>47810.40697312891</v>
+        <v>200570.0928876117</v>
       </c>
       <c r="H6" t="n">
-        <v>221174.2880073196</v>
+        <v>200570.0928876115</v>
       </c>
       <c r="I6" t="n">
-        <v>221174.2880073202</v>
+        <v>56348.80297209675</v>
       </c>
       <c r="J6" t="n">
-        <v>172109.3432787751</v>
+        <v>183193.6822547907</v>
       </c>
       <c r="K6" t="n">
-        <v>207718.4813278585</v>
+        <v>216477.1094379261</v>
       </c>
       <c r="L6" t="n">
-        <v>215123.91180694</v>
+        <v>224302.8583755748</v>
       </c>
       <c r="M6" t="n">
-        <v>127256.5392605572</v>
+        <v>111398.6823011123</v>
       </c>
       <c r="N6" t="n">
-        <v>221174.2880073199</v>
+        <v>224302.8583755748</v>
       </c>
       <c r="O6" t="n">
-        <v>175254.0767930092</v>
+        <v>224302.8583755747</v>
       </c>
       <c r="P6" t="n">
-        <v>221174.2880073197</v>
+        <v>224302.8583755751</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>509.8291662011504</v>
       </c>
       <c r="C3" t="n">
-        <v>593.4761003380646</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="F3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="G3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="G3" t="n">
-        <v>1089.776700593298</v>
-      </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="C4" t="n">
-        <v>239.8079481415044</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
         <v>640.5848321000387</v>
@@ -26804,10 +26804,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.584832100039</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26816,22 +26816,22 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>509.8291662011504</v>
       </c>
       <c r="C3" t="n">
-        <v>45.00615942515992</v>
+        <v>38.6407747117542</v>
       </c>
       <c r="D3" t="n">
-        <v>20.57891343141364</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320.0098783480609</v>
+        <v>385.5949512046345</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>155.7118084757592</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="C4" t="n">
-        <v>52.28236097518447</v>
+        <v>30.40684520860646</v>
       </c>
       <c r="D4" t="n">
-        <v>23.90593186000171</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8709520985326</v>
+        <v>453.0592449337189</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>190.816623302254</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="K4" t="n">
-        <v>52.28236097518447</v>
+        <v>30.4068452086068</v>
       </c>
       <c r="L4" t="n">
-        <v>23.90593186000206</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985326</v>
+        <v>453.0592449337187</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,25 +27257,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="K4" t="n">
-        <v>52.28236097518447</v>
+        <v>30.40684520860646</v>
       </c>
       <c r="L4" t="n">
-        <v>23.90593186000171</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985326</v>
+        <v>453.0592449337189</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>79.01583489435117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>173.9542238989544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>260.7122886438576</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>323.4366478202534</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>365.708915369595</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>345.3285584995943</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>294.7299352208369</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>221.3299070215255</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.70445075299987</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>8.971968542896624</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1639651589792643</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.096613678243984</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.59097947146163</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>103.605944048481</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>285.2109408166228</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>260.9122903671114</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>68.08624223342913</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.36911810247048</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9193640701987956</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.173982369585662</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>64.99903976305485</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>106.8133892467328</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>136.6843636730101</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.114496931253</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>140.6877763059667</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>129.947932395008</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.1929053629525</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>41.3379517382113</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.02200838700992</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05014713110175255</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.385833569198248</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055156</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651554</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>202.49464189374</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779019</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712528</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074821</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>425.7102483359667</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822516</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426698</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457574</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411496</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810513</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916533</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840365</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182838</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847382</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070427</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>277.170135351282</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842452</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900651</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947075</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671572</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607456</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080798</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784624</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308313</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888313</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207009</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784128</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490373</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>124.338107579024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889952</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676925</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>163.770216344109</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714136</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>129.4361645720919</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104776</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937814</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>18.6507161368536</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522791</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>415.9250721658379</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990948</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350555</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I14" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T14" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U14" t="n">
         <v>0.3004027793744847</v>
@@ -32071,10 +32071,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J15" t="n">
         <v>189.8178475575841</v>
@@ -32083,34 +32083,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R15" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J16" t="n">
         <v>119.0856174753787</v>
@@ -32168,10 +32168,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P16" t="n">
         <v>203.7180217169137</v>
@@ -32180,16 +32180,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>129.5393570429493</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>136.2958517730041</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>115.2303470779076</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>112.7685094895579</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>39.23762151646889</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>99.5502699634084</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>153.8692287332895</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>118.3160459226669</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>44.88472698024177</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2010091933412</v>
+        <v>154.5330603090477</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>108.471464627846</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.4487373670537</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292135</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012656</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802094</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393758</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605649</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874002</v>
+        <v>85.8349965691596</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130796</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>66.78462588923419</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.2907269326837</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>138.6157555714078</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622268</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>200.6633754067318</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>161.123548150263</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528269</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472408</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>45.02901441547746</v>
+        <v>28.45844197068213</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493114</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295331</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233376</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854533</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369854</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468045</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716377</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>148.2266905659562</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.9385470877688</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K12" t="n">
-        <v>379.9148430313198</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L12" t="n">
         <v>297.6803606378501</v>
@@ -35506,10 +35506,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P14" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O15" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P15" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K16" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M16" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P16" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
